--- a/CSE DEP FULL details.xlsx
+++ b/CSE DEP FULL details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Temp\Dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C62E68-8039-41AD-A8DA-6EC79DC86920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16370D05-F452-4C7F-AA17-5A32E74F4664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="2441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="2443">
   <si>
     <t>Sno</t>
   </si>
@@ -7360,6 +7360,12 @@
   </si>
   <si>
     <t>kaisarahmadbhat.21cse@kongu.edu</t>
+  </si>
+  <si>
+    <t>flvkfnv</t>
+  </si>
+  <si>
+    <t>svrr</t>
   </si>
 </sst>
 </file>
@@ -7748,7 +7754,7 @@
   <dimension ref="A1:J821"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B31"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8209,7 +8215,9 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>2441</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>32</v>
@@ -8233,7 +8241,9 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>2442</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>64</v>
